--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2435608.990409747</v>
+        <v>2574563.87803365</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4894121.085876457</v>
+        <v>5158108.750154074</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,16 +667,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>318.3252443674959</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>246.9245198994576</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>8.129390960577833</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>195.1000722350315</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255876</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,10 +907,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>411.6628019269127</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>79.28294675538937</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>54.79173752019197</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>65.92122575237555</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>174.2757004619341</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>78.97257646164222</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>240.014037213897</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112158</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>169.7683454188598</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0564930767002</v>
+        <v>41.94061297377363</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1610,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>350.2549173132661</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>103.345659457196</v>
+        <v>212.9450041785558</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>52.51170991984772</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>134.9254647561321</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>191.4036361854208</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2570,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112173</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>26.70160847752037</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903169062</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3238,7 +3240,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1197855393588</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>16.92574903168972</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>1.713177383181896</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800589</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884111</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773001</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791281592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800153</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U44" t="n">
-        <v>64.47158746550939</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655154</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633433</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317974</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>105.6319392430734</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>97.20690742198988</v>
+        <v>174.9399834978615</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244308</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>21.203643081682</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573295</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695716</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>442.6066390714051</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>408.5045702952325</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.749580445395</v>
+        <v>376.6351895100811</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,16 +4330,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1294.102365436318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
         <v>1697.183430080417</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1118.324916525462</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>868.9062095563129</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4489,49 +4491,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>89.90148899448771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>89.90148899448771</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1688.971924059632</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1688.971924059632</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1688.971924059632</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>720.185388501638</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>523.1146084662527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>1367.397424416629</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>929.254951600052</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>897.3855708149006</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>867.6512300135998</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>674.5331706342563</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1922.734738723814</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1922.734738723814</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530731</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1813.044773941764</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1393.902310521075</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>1389.656590861132</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.523902298118</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>538.7332355342593</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1586.2504114134</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1537.942061378414</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>1537.942061378414</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>1265.915656964706</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>1020.523902298118</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="Y7" t="n">
-        <v>1020.523902298118</v>
+        <v>956.9288356845835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.498727323736</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>957.3966585475634</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1437.146076848872</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.044017468586</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>1417.798297808644</v>
+        <v>1811.771604420621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.3833729168607</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C10" t="n">
-        <v>199.8216614000857</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1109.321405990304</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1595.995329531605</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1309.039821402036</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.013416988327</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X10" t="n">
-        <v>791.6216623217397</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.2019916358479</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1673.094770252241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.952297435665</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>799.0425126101093</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3331.678382447151</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3331.678382447151</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2926.822927858185</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2507.680464437496</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2099.394340737149</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.962574832099</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O12" t="n">
-        <v>1368.962574832099</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1368.962574832099</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1064.064451376128</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C13" t="n">
-        <v>891.502739859353</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D13" t="n">
-        <v>725.6247470608757</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E13" t="n">
-        <v>555.8667433116129</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F13" t="n">
-        <v>379.1596892733692</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G13" t="n">
-        <v>213.5684142991968</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2287.676407990873</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2000.720899861303</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.694495447595</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X13" t="n">
-        <v>1483.302740781007</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1255.883070095115</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2213.646666035846</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1775.50419321927</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.594408393714</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>905.8196635520092</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.952233961217</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3048.232360221101</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2639.946236520754</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
         <v>5113.042013538981</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5941,19 +5943,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2344.924253929048</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2066.491253182153</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1779.535745052583</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771609</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004247</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>414.500552094942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5095.945297345354</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4850.06585092381</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4571.632850176916</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4284.677342047346</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4012.650937633638</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>3767.25918296705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779338</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.1660143917137</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6886,22 +6888,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2345.210971753353</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2066.777971006458</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1779.822462876888</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.79605846318</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1262.404303796593</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1034.984633110701</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>374.3541507223514</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1208.704442680529</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2283.764408933388</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3440.81224414394</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N35" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7020,22 +7022,22 @@
         <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2701.823733979953</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7159,16 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,16 +7177,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993934</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2068.180728599449</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1630.038255782872</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1206.821882881776</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2149.024846375584</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2149.024846375584</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3091.227809869392</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3091.227809869392</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2476.466852299795</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2068.180728599449</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.493131408668</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.493131408668</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.493131408668</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.493131408668</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.493131408668</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.493131408668</v>
+        <v>1628.781199980813</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1779.455131821281</v>
+        <v>2528.900047651786</v>
       </c>
       <c r="C44" t="n">
-        <v>1341.312659004705</v>
+        <v>2090.757574835209</v>
       </c>
       <c r="D44" t="n">
-        <v>905.4028741791492</v>
+        <v>1654.847790009654</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167949</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771565</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004203</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436364</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035995</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3438.038744016192</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3438.038744016192</v>
+        <v>4187.483659846696</v>
       </c>
       <c r="W44" t="n">
-        <v>3033.183289427225</v>
+        <v>3782.62820525773</v>
       </c>
       <c r="X44" t="n">
-        <v>2614.040826006536</v>
+        <v>3363.485741837041</v>
       </c>
       <c r="Y44" t="n">
-        <v>2205.754702306189</v>
+        <v>2955.199618136694</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>949.578225095766</v>
       </c>
       <c r="C46" t="n">
-        <v>764.2136293346052</v>
+        <v>842.879296567409</v>
       </c>
       <c r="D46" t="n">
-        <v>598.3356365361279</v>
+        <v>842.879296567409</v>
       </c>
       <c r="E46" t="n">
-        <v>428.5776327868652</v>
+        <v>673.1212928181462</v>
       </c>
       <c r="F46" t="n">
-        <v>330.3888374111178</v>
+        <v>496.4142387799023</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1886.234673580941</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1368.816514500645</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1141.396843814753</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>434.0712383807922</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>299.7839758982054</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,16 +8619,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>386.2721222723219</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.1004058270461</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O21" t="n">
-        <v>164.427348413367</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>274.8417277288603</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.4541234517545</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11136,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313468</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>86.8617342372934</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.446659489829045</v>
+        <v>96.5625395927556</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>64.69612147321629</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>139.5921776627257</v>
+        <v>29.99283294136586</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>143.6516710866793</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>140.7232059832927</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>73.6291869796181</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>52.30086641797044</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>429.837509594118</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.402111925510098e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>192.1584921906439</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>65.20415515853408</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704927</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>77.73307607587145</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433910.6127011201</v>
+        <v>440251.7739127578</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433910.6127011201</v>
+        <v>441393.5139357205</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362736.3329892386</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362736.3329892385</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362736.3329892385</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362736.3329892384</v>
+        <v>448631.2472455779</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522743.6368931484</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>415335.8231724242</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339187</v>
       </c>
       <c r="G2" t="n">
         <v>513686.1445339185</v>
@@ -26332,7 +26334,7 @@
         <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="J2" t="n">
         <v>513686.1445339185</v>
@@ -26350,10 +26352,10 @@
         <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339182</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501627</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998267</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622234</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>33249.55378461172</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="F4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="O4" t="n">
-        <v>33249.55378461168</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="P4" t="n">
-        <v>33249.55378461169</v>
+        <v>41122.95192991245</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083186</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>133563.0150404028</v>
       </c>
       <c r="C6" t="n">
-        <v>275754.3157001127</v>
+        <v>237464.4903953444</v>
       </c>
       <c r="D6" t="n">
-        <v>275754.3157001127</v>
+        <v>297619.7695425034</v>
       </c>
       <c r="E6" t="n">
-        <v>166744.3884248766</v>
+        <v>212489.8447771636</v>
       </c>
       <c r="F6" t="n">
-        <v>324221.6833469808</v>
+        <v>394844.9539982134</v>
       </c>
       <c r="G6" t="n">
-        <v>305345.1453918442</v>
+        <v>394844.9539982132</v>
       </c>
       <c r="H6" t="n">
-        <v>394844.9539982132</v>
+        <v>394844.9539982133</v>
       </c>
       <c r="I6" t="n">
         <v>394844.9539982133</v>
@@ -26546,22 +26548,22 @@
         <v>283830.4886532231</v>
       </c>
       <c r="K6" t="n">
+        <v>341799.0993594406</v>
+      </c>
+      <c r="L6" t="n">
+        <v>385452.6522715911</v>
+      </c>
+      <c r="M6" t="n">
+        <v>242644.7830602256</v>
+      </c>
+      <c r="N6" t="n">
         <v>394844.9539982133</v>
       </c>
-      <c r="L6" t="n">
-        <v>394844.9539982132</v>
-      </c>
-      <c r="M6" t="n">
-        <v>263408.7068407938</v>
-      </c>
-      <c r="N6" t="n">
-        <v>394844.9539982132</v>
-      </c>
       <c r="O6" t="n">
-        <v>324221.6833469807</v>
+        <v>394844.9539982135</v>
       </c>
       <c r="P6" t="n">
-        <v>324221.6833469807</v>
+        <v>394844.9539982133</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>111.1117530257919</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>157.2787425638855</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>235.2912609967514</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.04540174400128</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628234</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>11.9259533679716</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>91.55314764621794</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>170.3537364588408</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>365.6294612249243</v>
-      </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>229.927562001409</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.6760942777835</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.07191583437685</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.078951308055314e-14</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.370295958439647e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.078951308055314e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,16 +30747,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-3.634505359989469e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30763,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,22 +30854,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -30900,25 +30902,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>434.0712383807922</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>299.7839758982054</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>386.2721222723219</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.8000219838295</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.1004058270461</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O21" t="n">
-        <v>164.427348413367</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,19 +36369,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,16 +37080,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>274.8417277288603</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.4541234517545</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>19.7440643176119</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2574563.87803365</v>
+        <v>2574038.695664617</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916867</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>90.74341847517738</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.9245198994576</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.1000722350315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>411.6628019269127</v>
+        <v>309.7285649235763</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083472</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.79173752019197</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.2757004619341</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>240.014037213897</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H13" t="n">
-        <v>41.94061297377363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>108.5103196251634</v>
       </c>
       <c r="X16" t="n">
-        <v>212.9450041785558</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>52.51170991984772</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>134.9254647561321</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>191.4036361854208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>125.6544692828921</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>98.73120706589778</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>16.92574903169062</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>90.30617524481251</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
-        <v>16.92574903168972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3742,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.49360828358961</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800589</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884111</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773001</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791281592</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800153</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655154</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633433</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317974</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>105.6319392430734</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978615</v>
+        <v>166.1507936381772</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244308</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.203643081682</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573295</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.085953048274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695716</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6066390714051</v>
+        <v>552.3238179760524</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>518.2217491998797</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1074.529126782698</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>982.8691081209028</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9062095563129</v>
+        <v>574.5829844205562</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>523.1146084662527</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4497,16 +4497,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4524,16 +4524,16 @@
         <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>720.185388501638</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>720.185388501638</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>523.1146084662527</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1367.397424416629</v>
+        <v>1671.116525359755</v>
       </c>
       <c r="C5" t="n">
-        <v>929.254951600052</v>
+        <v>1232.974052543178</v>
       </c>
       <c r="D5" t="n">
-        <v>897.3855708149006</v>
+        <v>797.0642677176227</v>
       </c>
       <c r="E5" t="n">
-        <v>867.6512300135998</v>
+        <v>363.2895228759178</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K5" t="n">
-        <v>674.5331706342563</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="L5" t="n">
-        <v>1298.633954679035</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="M5" t="n">
-        <v>1922.734738723814</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="N5" t="n">
-        <v>1922.734738723814</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720799</v>
+        <v>1922.734738723816</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657692</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530731</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>2217.900228530731</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>2217.900228530731</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.044773941764</v>
+        <v>2116.76387488489</v>
       </c>
       <c r="X5" t="n">
-        <v>1393.902310521075</v>
+        <v>1697.621411464201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.656590861132</v>
+        <v>1693.375691804259</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970915</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970915</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970915</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970915</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970915</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>956.9288356845835</v>
+        <v>593.0357356940413</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>420.4740241772662</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>254.5960313787889</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>266.2978593068828</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>684.5077410748438</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255757</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.2504114134</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2005.919660639183</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055679</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308784</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179215</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765506</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098919</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.9288356845835</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>947.329561119137</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
         <v>53.81800590148855</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2002.909724873567</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.807665493282</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.771604420621</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.9943193530034</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>613.4326078362284</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4998,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.650767838178</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.62436342447</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1205.232608757882</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>977.8129380719906</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,37 +5047,37 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
@@ -5120,22 +5120,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1083.7810821021</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>911.2193705853248</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>745.3413777868475</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>575.5833740375847</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>398.8763199993409</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>233.2850450251686</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1748.411126173566</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.019371506979</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.599700821087</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5287,43 +5287,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5475,13 +5475,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423627</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>730.3301528254058</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>560.572149076143</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>383.8650950378992</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5706,19 +5706,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5752,31 +5752,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,7 +5791,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5901,7 +5901,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5937,22 +5937,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U22" t="n">
-        <v>2177.511286811513</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V22" t="n">
-        <v>1890.555778681944</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.529374268236</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X22" t="n">
-        <v>1373.137619601648</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
         <v>1373.137619601648</v>
@@ -5995,16 +5995,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.924253929048</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2066.491253182153</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1779.535745052583</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1507.509340638875</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.117585972288</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1034.697915286396</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1612.575493976557</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2738.306477413004</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="29">
@@ -6475,16 +6475,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5095.945297345354</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>4850.06585092381</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.632850176916</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>4284.677342047346</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>4012.650937633638</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>3767.25918296705</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5247761102221</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>228.5247761102221</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.584742363081</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2460.632577573632</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,10 +6776,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
-        <v>2701.823733979953</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2455.944287558408</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2177.511286811513</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7201,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,7 +7420,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7438,25 +7438,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1628.781199980813</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2663.876401402276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2417.996954980732</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2139.563954233837</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1852.608446104267</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.582041690559</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.190287023971</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651786</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835209</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009654</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167949</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771565</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004203</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436364</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7684,16 +7684,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846696</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.62820525773</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837041</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136694</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7727,7 +7727,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.578225095766</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C46" t="n">
-        <v>842.879296567409</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D46" t="n">
-        <v>842.879296567409</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181462</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799023</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580941</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500645</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814753</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>434.0712383807922</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741867</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377835</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982054</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9242,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>138.1004058270461</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,10 +9652,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>839.1644551322515</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>127.53932913075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10667,10 +10667,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H13" t="n">
-        <v>96.5625395927556</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>160.795820744408</v>
       </c>
       <c r="X16" t="n">
-        <v>29.99283294136586</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.4236523045829</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.930842842405</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>143.6516710866793</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.48800580459475</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7232059832927</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.6291869796181</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
-        <v>140.7232059832936</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>103.1553467313937</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.402111925510098e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.20415515853408</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704927</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448631.2472455782</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448631.2472455782</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448631.2472455781</v>
+        <v>448631.2472455782</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448631.2472455779</v>
+        <v>448631.2472455781</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931483</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
         <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
-        <v>513686.1445339187</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="I2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="K2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="L2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="M2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="N2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="O2" t="n">
         <v>513686.1445339185</v>
       </c>
       <c r="P2" t="n">
-        <v>513686.1445339182</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501627</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998267</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622234</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.164794785</v>
+        <v>146735.1647947849</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26444,22 +26444,22 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991267</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991245</v>
+        <v>41122.95192991272</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26511,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133563.0150404028</v>
+        <v>133563.0150404027</v>
       </c>
       <c r="C6" t="n">
         <v>237464.4903953444</v>
       </c>
       <c r="D6" t="n">
-        <v>297619.7695425034</v>
+        <v>297619.7695425035</v>
       </c>
       <c r="E6" t="n">
-        <v>212489.8447771636</v>
+        <v>212466.6204377808</v>
       </c>
       <c r="F6" t="n">
-        <v>394844.9539982134</v>
+        <v>394821.7296588305</v>
       </c>
       <c r="G6" t="n">
-        <v>394844.9539982132</v>
+        <v>394821.7296588304</v>
       </c>
       <c r="H6" t="n">
-        <v>394844.9539982133</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="I6" t="n">
-        <v>394844.9539982133</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="J6" t="n">
-        <v>283830.4886532231</v>
+        <v>283807.2643138404</v>
       </c>
       <c r="K6" t="n">
-        <v>341799.0993594406</v>
+        <v>341775.875020058</v>
       </c>
       <c r="L6" t="n">
-        <v>385452.6522715911</v>
+        <v>385429.4279322085</v>
       </c>
       <c r="M6" t="n">
-        <v>242644.7830602256</v>
+        <v>242621.5587208429</v>
       </c>
       <c r="N6" t="n">
-        <v>394844.9539982133</v>
+        <v>394821.7296588305</v>
       </c>
       <c r="O6" t="n">
-        <v>394844.9539982135</v>
+        <v>394821.7296588306</v>
       </c>
       <c r="P6" t="n">
-        <v>394844.9539982133</v>
+        <v>394821.7296588305</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939308</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939308</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939308</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>324.207620311305</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.2787425638855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>37.54491999896322</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27548,13 +27548,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.04540174400128</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.9259533679716</v>
+        <v>113.860190371308</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818203</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>170.3537364588408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>229.927562001409</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.07191583437685</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,16 +30747,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-3.634505359989469e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,22 +30854,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -30902,25 +30902,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>434.0712383807922</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741867</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377835</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982054</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35886,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>138.1004058270461</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36141,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36372,10 +36372,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>839.1644551322515</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36843,19 +36843,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>127.53932913075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37387,10 +37387,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37858,10 +37858,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38095,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
